--- a/biology/Zoologie/Coronavirus_murin/Coronavirus_murin.xlsx
+++ b/biology/Zoologie/Coronavirus_murin/Coronavirus_murin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le coronavirus murin (MCoV), connu avant 2009 sous le nom de virus de l’hépatite murine (MHV pour murine hepatitis virus en anglais), aussi appelé virus de la gastroentérite murine (murine gastroenteritis virus en anglais), est un coronavirus à ARN qui est responsable d’une hépatite chez la souris.
 C’est le pathogène le plus important des souris de laboratoire, responsable d’épidémies dans cette population. Bien que l’infection soit la plupart du temps asymptomatique chez les souris adultes, elle est responsable de modifications du système immunitaire qui peuvent perturber les résultats scientifiques, raison pour laquelle les souris utilisées en expérimentation animale doivent en être indemnes.
@@ -513,7 +525,9 @@
           <t>Position phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus est un betacoronavirus, renommé « Murine coronavirus » et élevé au rang d'espèce en 2009. Depuis 2018, il est classé dans le sous-genre Embecovirus.
 </t>
